--- a/auto_interface_0630/test_case.xlsx
+++ b/auto_interface_0630/test_case.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python34\TestCode\auto_interface_0630\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="425"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="425" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="test_data" sheetId="1" r:id="rId1"/>
-    <sheet name="case" sheetId="2" r:id="rId2"/>
+    <sheet name="test_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="case" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+  <si>
+    <t>case_id</t>
+  </si>
   <si>
     <t>类型</t>
   </si>
   <si>
+    <t>描述</t>
+  </si>
+  <si>
     <t>method</t>
   </si>
   <si>
@@ -34,6 +35,12 @@
     <t>param</t>
   </si>
   <si>
+    <t>expected(期望)</t>
+  </si>
+  <si>
+    <t>actual(实际返回值）</t>
+  </si>
+  <si>
     <t>result（结果）</t>
   </si>
   <si>
@@ -43,7 +50,7 @@
     <t>注册-正常注册</t>
   </si>
   <si>
-    <t>get</t>
+    <t>post</t>
   </si>
   <si>
     <t>http://119.23.241.154:8080/futureloan/mvc/api/member/register</t>
@@ -52,13 +59,31 @@
     <t>{'mobilephone':'13541122222','pwd':'123456'}</t>
   </si>
   <si>
-    <t>{'mobilephone':'18128282828','pwd':'123456','regname':'小韩'}</t>
-  </si>
-  <si>
-    <t>注册-异常注册</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'131431112222','pwd':'123456'}</t>
+    <t>{'msg': '手机号码已被注册', 'status': 0, 'data': None, 'code': '20110'}</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>密码为空</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'13541122222','pwd':''}</t>
+  </si>
+  <si>
+    <t>{'msg': '密码不能为空', 'status': 0, 'data': None, 'code': '20103'}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>手机格式不正确</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'135411463110','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{'msg': '手机号码格式不正确', 'status': 0, 'data': None, 'code': '20109'}</t>
   </si>
   <si>
     <t>登录</t>
@@ -70,13 +95,25 @@
     <t>http://119.23.241.154:8080/futureloan/mvc/api/member/login</t>
   </si>
   <si>
-    <t>{'mobilephone':'13141222222','pwd':'123456'}</t>
-  </si>
-  <si>
-    <t>登录-异常登录</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'13141222222','pwd':'126'}</t>
+    <t>{'msg': '登录成功', 'status': 1, 'data': None, 'code': '10001'}</t>
+  </si>
+  <si>
+    <t>手机号为空</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{'msg': '手机号不能为空', 'status': 0, 'data': None, 'code': '20103'}</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'13541122222','pwd':'126'}</t>
+  </si>
+  <si>
+    <t>{'msg': '用户名或密码错误', 'status': 0, 'data': None, 'code': '20111'}</t>
   </si>
   <si>
     <t>充值</t>
@@ -88,57 +125,54 @@
     <t>http://119.23.241.154:8080/futureloan/mvc/api/member/recharge</t>
   </si>
   <si>
-    <t>{'mobilephone':'13141222222','amount':'1000'}</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'13141222222','amount':'1000.05'}</t>
-  </si>
-  <si>
-    <t>充值-异常充值</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'','amount':'1000'}</t>
-  </si>
-  <si>
-    <t>actual(实际返回值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expected(期望)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>{'mobilephone':'13541122222','amount':'1000'}</t>
+  </si>
+  <si>
+    <t>{'msg': '充值成功', 'status': 1, 'data': {'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regtime': '2018-06-28 23:42:57.0', 'leaveamount': '3000.00', 'id': 13240, 'regname': '小蜜蜂', 'type': '1', 'mobilephone': '13541122222'}, 'code': '10001'}</t>
+  </si>
+  <si>
+    <t>手机号不存在</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'15901129231','amount':'1000.05'}</t>
+  </si>
+  <si>
+    <t>{'msg': '此手机号对应的会员不存在', 'status': 0, 'data': None, 'code': '20104'}</t>
+  </si>
+  <si>
+    <t>金额小数大于2位</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'13541122222','amount':'1000.321'}</t>
+  </si>
+  <si>
+    <t>{'msg': '输入金额的金额小数不能超过两位', 'status': 0, 'data': None, 'code': '20116'}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -175,52 +209,43 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -510,334 +535,394 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="34.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" customWidth="1"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
-    <col min="5" max="5" width="35.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="63.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="9" width="8.5"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="5.25"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="14.125"/>
+    <col customWidth="1" max="4" min="4" width="7.625"/>
+    <col customWidth="1" max="5" min="5" style="1" width="35.875"/>
+    <col customWidth="1" max="6" min="6" style="1" width="63.25"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="14.75"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="20.75"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="15.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" customHeight="1" ht="34.5" r="1" s="6" spans="1:9">
       <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="34.5" r="2" spans="1:9">
+      <c r="A2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="34.5" r="3" spans="1:9">
+      <c r="A3" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="34.5" r="4" spans="1:9">
+      <c r="A4" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>20109</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="34.5" r="5" spans="1:9">
+      <c r="A5" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="34.5" r="6" spans="1:9">
+      <c r="A6" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="G6" s="4" t="n">
+        <v>20103</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="34.5" r="7" spans="1:9">
+      <c r="A7" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>20111</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="34.5" r="8" spans="1:9">
+      <c r="A8" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="34.5" r="9" spans="1:9">
+      <c r="A9" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>20104</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="34.5" r="10" spans="1:9">
+      <c r="A10" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>20116</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A2:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:8">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>6</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>7</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" spans="1:8">
+      <c r="A3" t="n">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>22</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>33</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>44</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>55</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>66</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>77</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>88</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>